--- a/employee_info1.xlsx
+++ b/employee_info1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fahahmad\Documents\fun_friday_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760E5076-3AF0-4649-9E2D-0C0F85F7F63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D23CE1-7A12-4832-B490-95620572A427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,27 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>Faheem</t>
-  </si>
-  <si>
-    <t>Bishal</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>Adrija</t>
-  </si>
-  <si>
-    <t>Abhishek</t>
-  </si>
-  <si>
-    <t>Prashant</t>
-  </si>
-  <si>
-    <t>Sarwesh</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -73,6 +52,27 @@
   </si>
   <si>
     <t>meme_images/faheem_meme.png</t>
+  </si>
+  <si>
+    <t>bishal</t>
+  </si>
+  <si>
+    <t>rahul</t>
+  </si>
+  <si>
+    <t>adrija</t>
+  </si>
+  <si>
+    <t>abhishek</t>
+  </si>
+  <si>
+    <t>prashant</t>
+  </si>
+  <si>
+    <t>sarwesh</t>
+  </si>
+  <si>
+    <t>faheem</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -403,66 +403,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/employee_info1.xlsx
+++ b/employee_info1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fahahmad\Documents\fun_friday_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D23CE1-7A12-4832-B490-95620572A427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E338DEC7-DF4C-454D-8492-47D7811B6BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,54 +25,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>meme_images/bishal_meme.png</t>
-  </si>
-  <si>
     <t>Image URL</t>
   </si>
   <si>
-    <t>meme_images/rahul_meme.png</t>
-  </si>
-  <si>
-    <t>meme_images/adrija_meme.png</t>
-  </si>
-  <si>
-    <t>meme_images/abhishek_meme.png</t>
-  </si>
-  <si>
-    <t>meme_images/prashant_meme.png</t>
-  </si>
-  <si>
-    <t>meme_images/sarwesh_meme.png</t>
-  </si>
-  <si>
-    <t>meme_images/faheem_meme.png</t>
-  </si>
-  <si>
     <t>bishal</t>
   </si>
   <si>
-    <t>rahul</t>
-  </si>
-  <si>
     <t>adrija</t>
   </si>
   <si>
     <t>abhishek</t>
   </si>
   <si>
-    <t>prashant</t>
-  </si>
-  <si>
     <t>sarwesh</t>
   </si>
   <si>
-    <t>faheem</t>
+    <t>meme_images/abhishek.png</t>
+  </si>
+  <si>
+    <t>azharudhin</t>
+  </si>
+  <si>
+    <t>meme_images/azhar.png</t>
+  </si>
+  <si>
+    <t>archana</t>
+  </si>
+  <si>
+    <t>meme_images/archana.png</t>
+  </si>
+  <si>
+    <t>akash</t>
+  </si>
+  <si>
+    <t>meme_images/akash_deep.png</t>
+  </si>
+  <si>
+    <t>meme_images/adrija.png</t>
+  </si>
+  <si>
+    <t>meme_images/bishal.png</t>
+  </si>
+  <si>
+    <t>daksh</t>
+  </si>
+  <si>
+    <t>meme_images/Daksh.png</t>
+  </si>
+  <si>
+    <t>deepthi nair</t>
+  </si>
+  <si>
+    <t>meme_images/deepthi_nair.png</t>
+  </si>
+  <si>
+    <t>gishika</t>
+  </si>
+  <si>
+    <t>meme_images/gishika.png</t>
+  </si>
+  <si>
+    <t>harsh</t>
+  </si>
+  <si>
+    <t>deepthi valsan</t>
+  </si>
+  <si>
+    <t>meme_images/deepthi_valsan.png</t>
+  </si>
+  <si>
+    <t>meme_images/harsh.png</t>
+  </si>
+  <si>
+    <t>zain</t>
+  </si>
+  <si>
+    <t>meme_images/zain.png</t>
+  </si>
+  <si>
+    <t>vijay</t>
+  </si>
+  <si>
+    <t>meme_images/vijay.png</t>
+  </si>
+  <si>
+    <t>sneha</t>
+  </si>
+  <si>
+    <t>meme_images/sneha.png</t>
+  </si>
+  <si>
+    <t>shamim</t>
+  </si>
+  <si>
+    <t>meme_images/shamim.png</t>
+  </si>
+  <si>
+    <t>meme_images/sarwesh.png</t>
+  </si>
+  <si>
+    <t>sanjana</t>
+  </si>
+  <si>
+    <t>meme_images/sanjana.png</t>
+  </si>
+  <si>
+    <t>ragav</t>
+  </si>
+  <si>
+    <t>meme_images/ragav.png</t>
+  </si>
+  <si>
+    <t>prashant_singhal</t>
+  </si>
+  <si>
+    <t>meme_images/prashant_singhal.png</t>
+  </si>
+  <si>
+    <t>pavani</t>
+  </si>
+  <si>
+    <t>meme_images/pavani.png</t>
+  </si>
+  <si>
+    <t>parashant</t>
+  </si>
+  <si>
+    <t>meme_images/parashant.png</t>
+  </si>
+  <si>
+    <t>lipika</t>
+  </si>
+  <si>
+    <t>meme_images/lipika.png</t>
+  </si>
+  <si>
+    <t>meme_images/imad.png</t>
+  </si>
+  <si>
+    <t>imad</t>
   </si>
 </sst>
 </file>
@@ -390,14 +486,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -406,55 +503,55 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -462,7 +559,135 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/employee_info1.xlsx
+++ b/employee_info1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fahahmad\Documents\fun_friday_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E338DEC7-DF4C-454D-8492-47D7811B6BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A9F0F5-DBFE-4A48-8756-B27F5C749545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,6 +30,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>meme_images/bishal_meme.png</t>
+  </si>
+  <si>
     <t>Image URL</t>
   </si>
   <si>
@@ -67,9 +70,6 @@
   </si>
   <si>
     <t>meme_images/adrija.png</t>
-  </si>
-  <si>
-    <t>meme_images/bishal.png</t>
   </si>
   <si>
     <t>daksh</t>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -503,55 +503,55 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -628,7 +628,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>

--- a/employee_info1.xlsx
+++ b/employee_info1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fahahmad\Documents\fun_friday_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A9F0F5-DBFE-4A48-8756-B27F5C749545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810FB688-7CE6-4857-9973-5D6F13955AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -66,9 +66,6 @@
     <t>akash</t>
   </si>
   <si>
-    <t>meme_images/akash_deep.png</t>
-  </si>
-  <si>
     <t>meme_images/adrija.png</t>
   </si>
   <si>
@@ -169,6 +166,15 @@
   </si>
   <si>
     <t>imad</t>
+  </si>
+  <si>
+    <t>meme_images/akash.png</t>
+  </si>
+  <si>
+    <t>praveena</t>
+  </si>
+  <si>
+    <t>meme_images/praveena.png</t>
   </si>
 </sst>
 </file>
@@ -486,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,7 +541,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -543,7 +549,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -556,74 +562,74 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -631,63 +637,71 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/employee_info1.xlsx
+++ b/employee_info1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fahahmad\Documents\fun_friday_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810FB688-7CE6-4857-9973-5D6F13955AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2B8D7E-C344-4DC0-BACC-840A7F39361A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>deepthi nair</t>
   </si>
   <si>
-    <t>meme_images/deepthi_nair.png</t>
-  </si>
-  <si>
     <t>gishika</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>meme_images/praveena.png</t>
+  </si>
+  <si>
+    <t>meme_images/deepthi_nair.jpg</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,7 +541,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -573,63 +573,63 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -637,71 +637,71 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
         <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
         <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
         <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
         <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
         <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/employee_info1.xlsx
+++ b/employee_info1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fahahmad\Documents\fun_friday_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2B8D7E-C344-4DC0-BACC-840A7F39361A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B524F337-C97F-4A80-A953-FE5666D82117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>sneha</t>
   </si>
   <si>
-    <t>meme_images/sneha.png</t>
-  </si>
-  <si>
     <t>shamim</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>meme_images/deepthi_nair.jpg</t>
+  </si>
+  <si>
+    <t>meme_images/sneha.jpg</t>
   </si>
 </sst>
 </file>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,7 +541,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -573,7 +573,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -621,15 +621,15 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -637,71 +637,71 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
         <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
         <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
         <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
         <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
         <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
         <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
